--- a/out/equity/history/INE1NPP01017-Siemens Energy India Ltd.xlsx
+++ b/out/equity/history/INE1NPP01017-Siemens Energy India Ltd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       <c r="H2" t="n">
         <v>3803163</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>45827</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -589,7 +589,7 @@
       <c r="H3" t="n">
         <v>9930399</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45828</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="H4" t="n">
         <v>2858284</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45831</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -695,7 +695,7 @@
       <c r="H5" t="n">
         <v>2399123</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45832</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -748,7 +748,7 @@
       <c r="H6" t="n">
         <v>1290843</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45833</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -801,7 +801,7 @@
       <c r="H7" t="n">
         <v>3318384</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45834</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -854,7 +854,7 @@
       <c r="H8" t="n">
         <v>658133</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>45835</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -907,7 +907,7 @@
       <c r="H9" t="n">
         <v>597963</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>45838</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -960,7 +960,7 @@
       <c r="H10" t="n">
         <v>534234</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>45839</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1013,7 +1013,7 @@
       <c r="H11" t="n">
         <v>563846</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>45840</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1066,7 +1066,7 @@
       <c r="H12" t="n">
         <v>644589</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="H13" t="n">
         <v>652231</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45842</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1172,7 +1172,7 @@
       <c r="H14" t="n">
         <v>1956872</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45845</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1225,7 +1225,7 @@
       <c r="H15" t="n">
         <v>1511402</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="H16" t="n">
         <v>1515261</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45847</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1331,7 +1331,7 @@
       <c r="H17" t="n">
         <v>817351</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1384,7 +1384,7 @@
       <c r="H18" t="n">
         <v>1044740</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45849</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1437,7 +1437,7 @@
       <c r="H19" t="n">
         <v>892528</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45852</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="H20" t="n">
         <v>882751</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>45853</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="H21" t="n">
         <v>765672</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45854</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1596,7 +1596,7 @@
       <c r="H22" t="n">
         <v>755463</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45855</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="H23" t="n">
         <v>503938</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1702,7 +1702,7 @@
       <c r="H24" t="n">
         <v>363434</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>45859</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1755,7 +1755,7 @@
       <c r="H25" t="n">
         <v>400285</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45860</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1808,7 +1808,7 @@
       <c r="H26" t="n">
         <v>460637</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>45861</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1861,7 +1861,7 @@
       <c r="H27" t="n">
         <v>484462</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>45862</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -1914,7 +1914,7 @@
       <c r="H28" t="n">
         <v>342713</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -1967,7 +1967,7 @@
       <c r="H29" t="n">
         <v>752553</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>45866</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2020,7 +2020,7 @@
       <c r="H30" t="n">
         <v>622907</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>45867</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2073,7 +2073,7 @@
       <c r="H31" t="n">
         <v>1302471</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>45868</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2126,7 +2126,7 @@
       <c r="H32" t="n">
         <v>562706</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="2" t="n">
         <v>45869</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2179,7 +2179,7 @@
       <c r="H33" t="n">
         <v>438365</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2232,7 +2232,7 @@
       <c r="H34" t="n">
         <v>859412</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>45873</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2285,7 +2285,7 @@
       <c r="H35" t="n">
         <v>1612777</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>45874</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2338,7 +2338,7 @@
       <c r="H36" t="n">
         <v>624579</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>45875</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="H37" t="n">
         <v>575554</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>45876</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2444,7 +2444,7 @@
       <c r="H38" t="n">
         <v>569158</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>45877</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2497,7 +2497,7 @@
       <c r="H39" t="n">
         <v>1119671</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>45880</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2550,7 +2550,7 @@
       <c r="H40" t="n">
         <v>675487</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2603,7 +2603,7 @@
       <c r="H41" t="n">
         <v>433439</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2656,7 +2656,7 @@
       <c r="H42" t="n">
         <v>291643</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="H43" t="n">
         <v>1008474</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -2762,7 +2762,7 @@
       <c r="H44" t="n">
         <v>315990</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -2815,7 +2815,7 @@
       <c r="H45" t="n">
         <v>823290</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="H46" t="n">
         <v>617707</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="H47" t="n">
         <v>569019</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -2974,7 +2974,7 @@
       <c r="H48" t="n">
         <v>416087</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3027,7 +3027,7 @@
       <c r="H49" t="n">
         <v>322766</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3080,7 +3080,7 @@
       <c r="H50" t="n">
         <v>736096</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="H51" t="n">
         <v>262639</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="2" t="n">
         <v>45898</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3186,7 +3186,7 @@
       <c r="H52" t="n">
         <v>720566</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="2" t="n">
         <v>45901</v>
       </c>
       <c r="J52" t="inlineStr">
@@ -3239,7 +3239,7 @@
       <c r="H53" t="n">
         <v>446016</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="J53" t="inlineStr">
@@ -3292,7 +3292,7 @@
       <c r="H54" t="n">
         <v>318881</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="J54" t="inlineStr">
@@ -3345,7 +3345,7 @@
       <c r="H55" t="n">
         <v>313245</v>
       </c>
-      <c r="I55" s="3" t="n">
+      <c r="I55" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="J55" t="inlineStr">
@@ -3398,7 +3398,7 @@
       <c r="H56" t="n">
         <v>193985</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="2" t="n">
         <v>45905</v>
       </c>
       <c r="J56" t="inlineStr">
@@ -3451,7 +3451,7 @@
       <c r="H57" t="n">
         <v>220273</v>
       </c>
-      <c r="I57" s="3" t="n">
+      <c r="I57" s="2" t="n">
         <v>45908</v>
       </c>
       <c r="J57" t="inlineStr">
@@ -3504,7 +3504,7 @@
       <c r="H58" t="n">
         <v>284139</v>
       </c>
-      <c r="I58" s="3" t="n">
+      <c r="I58" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="J58" t="inlineStr">
@@ -3557,7 +3557,7 @@
       <c r="H59" t="n">
         <v>705491</v>
       </c>
-      <c r="I59" s="3" t="n">
+      <c r="I59" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="J59" t="inlineStr">
@@ -3610,7 +3610,7 @@
       <c r="H60" t="n">
         <v>417841</v>
       </c>
-      <c r="I60" s="3" t="n">
+      <c r="I60" s="2" t="n">
         <v>45911</v>
       </c>
       <c r="J60" t="inlineStr">
@@ -3663,7 +3663,7 @@
       <c r="H61" t="n">
         <v>380364</v>
       </c>
-      <c r="I61" s="3" t="n">
+      <c r="I61" s="2" t="n">
         <v>45912</v>
       </c>
       <c r="J61" t="inlineStr">
@@ -3716,7 +3716,7 @@
       <c r="H62" t="n">
         <v>439382</v>
       </c>
-      <c r="I62" s="3" t="n">
+      <c r="I62" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="J62" t="inlineStr">
@@ -3769,7 +3769,7 @@
       <c r="H63" t="n">
         <v>294235</v>
       </c>
-      <c r="I63" s="3" t="n">
+      <c r="I63" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="J63" t="inlineStr">
@@ -3822,7 +3822,7 @@
       <c r="H64" t="n">
         <v>550710</v>
       </c>
-      <c r="I64" s="3" t="n">
+      <c r="I64" s="2" t="n">
         <v>45917</v>
       </c>
       <c r="J64" t="inlineStr">
@@ -3875,7 +3875,7 @@
       <c r="H65" t="n">
         <v>434847</v>
       </c>
-      <c r="I65" s="3" t="n">
+      <c r="I65" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="J65" t="inlineStr">
@@ -3928,7 +3928,7 @@
       <c r="H66" t="n">
         <v>583692</v>
       </c>
-      <c r="I66" s="3" t="n">
+      <c r="I66" s="2" t="n">
         <v>45919</v>
       </c>
       <c r="J66" t="inlineStr">
@@ -3981,7 +3981,7 @@
       <c r="H67" t="n">
         <v>791302</v>
       </c>
-      <c r="I67" s="3" t="n">
+      <c r="I67" s="2" t="n">
         <v>45922</v>
       </c>
       <c r="J67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       <c r="H68" t="n">
         <v>833280</v>
       </c>
-      <c r="I68" s="3" t="n">
+      <c r="I68" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="J68" t="inlineStr">
@@ -4087,7 +4087,7 @@
       <c r="H69" t="n">
         <v>696038</v>
       </c>
-      <c r="I69" s="3" t="n">
+      <c r="I69" s="2" t="n">
         <v>45924</v>
       </c>
       <c r="J69" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="H70" t="n">
         <v>486897</v>
       </c>
-      <c r="I70" s="3" t="n">
+      <c r="I70" s="2" t="n">
         <v>45925</v>
       </c>
       <c r="J70" t="inlineStr">
@@ -4193,7 +4193,7 @@
       <c r="H71" t="n">
         <v>615326</v>
       </c>
-      <c r="I71" s="3" t="n">
+      <c r="I71" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J71" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="H72" t="n">
         <v>2641579</v>
       </c>
-      <c r="I72" s="3" t="n">
+      <c r="I72" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J72" t="inlineStr">
@@ -4299,7 +4299,7 @@
       <c r="H73" t="n">
         <v>431736</v>
       </c>
-      <c r="I73" s="3" t="n">
+      <c r="I73" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="J73" t="inlineStr">
@@ -4352,7 +4352,7 @@
       <c r="H74" t="n">
         <v>271393</v>
       </c>
-      <c r="I74" s="3" t="n">
+      <c r="I74" s="2" t="n">
         <v>45931</v>
       </c>
       <c r="J74" t="inlineStr">
@@ -4405,7 +4405,7 @@
       <c r="H75" t="n">
         <v>363297</v>
       </c>
-      <c r="I75" s="3" t="n">
+      <c r="I75" s="2" t="n">
         <v>45933</v>
       </c>
       <c r="J75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="H76" t="n">
         <v>681894</v>
       </c>
-      <c r="I76" s="3" t="n">
+      <c r="I76" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="J76" t="inlineStr">
@@ -4511,7 +4511,7 @@
       <c r="H77" t="n">
         <v>424441</v>
       </c>
-      <c r="I77" s="3" t="n">
+      <c r="I77" s="2" t="n">
         <v>45937</v>
       </c>
       <c r="J77" t="inlineStr">
@@ -4564,7 +4564,7 @@
       <c r="H78" t="n">
         <v>516943</v>
       </c>
-      <c r="I78" s="3" t="n">
+      <c r="I78" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="J78" t="inlineStr">
@@ -4617,7 +4617,7 @@
       <c r="H79" t="n">
         <v>468811</v>
       </c>
-      <c r="I79" s="3" t="n">
+      <c r="I79" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J79" t="inlineStr">
@@ -4670,7 +4670,7 @@
       <c r="H80" t="n">
         <v>266962</v>
       </c>
-      <c r="I80" s="3" t="n">
+      <c r="I80" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J80" t="inlineStr">
@@ -4723,7 +4723,7 @@
       <c r="H81" t="n">
         <v>193419</v>
       </c>
-      <c r="I81" s="3" t="n">
+      <c r="I81" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="J81" t="inlineStr">
@@ -4776,7 +4776,7 @@
       <c r="H82" t="n">
         <v>335064</v>
       </c>
-      <c r="I82" s="3" t="n">
+      <c r="I82" s="2" t="n">
         <v>45944</v>
       </c>
       <c r="J82" t="inlineStr">
@@ -4829,7 +4829,7 @@
       <c r="H83" t="n">
         <v>346260</v>
       </c>
-      <c r="I83" s="3" t="n">
+      <c r="I83" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="J83" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="H84" t="n">
         <v>323454</v>
       </c>
-      <c r="I84" s="3" t="n">
+      <c r="I84" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="J84" t="inlineStr">
@@ -4935,7 +4935,7 @@
       <c r="H85" t="n">
         <v>207829</v>
       </c>
-      <c r="I85" s="3" t="n">
+      <c r="I85" s="2" t="n">
         <v>45947</v>
       </c>
       <c r="J85" t="inlineStr">
@@ -4988,7 +4988,7 @@
       <c r="H86" t="n">
         <v>196220</v>
       </c>
-      <c r="I86" s="3" t="n">
+      <c r="I86" s="2" t="n">
         <v>45950</v>
       </c>
       <c r="J86" t="inlineStr">
@@ -5041,7 +5041,7 @@
       <c r="H87" t="n">
         <v>33939</v>
       </c>
-      <c r="I87" s="3" t="n">
+      <c r="I87" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="J87" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="H88" t="n">
         <v>284315</v>
       </c>
-      <c r="I88" s="3" t="n">
+      <c r="I88" s="2" t="n">
         <v>45953</v>
       </c>
       <c r="J88" t="inlineStr">
@@ -5147,7 +5147,7 @@
       <c r="H89" t="n">
         <v>327268</v>
       </c>
-      <c r="I89" s="3" t="n">
+      <c r="I89" s="2" t="n">
         <v>45954</v>
       </c>
       <c r="J89" t="inlineStr">
@@ -5200,7 +5200,7 @@
       <c r="H90" t="n">
         <v>365265</v>
       </c>
-      <c r="I90" s="3" t="n">
+      <c r="I90" s="2" t="n">
         <v>45957</v>
       </c>
       <c r="J90" t="inlineStr">
@@ -5253,7 +5253,7 @@
       <c r="H91" t="n">
         <v>333967</v>
       </c>
-      <c r="I91" s="3" t="n">
+      <c r="I91" s="2" t="n">
         <v>45958</v>
       </c>
       <c r="J91" t="inlineStr">
@@ -5306,7 +5306,7 @@
       <c r="H92" t="n">
         <v>747289</v>
       </c>
-      <c r="I92" s="3" t="n">
+      <c r="I92" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J92" t="inlineStr">
@@ -5359,7 +5359,7 @@
       <c r="H93" t="n">
         <v>735976</v>
       </c>
-      <c r="I93" s="3" t="n">
+      <c r="I93" s="2" t="n">
         <v>45960</v>
       </c>
       <c r="J93" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="H94" t="n">
         <v>321923</v>
       </c>
-      <c r="I94" s="3" t="n">
+      <c r="I94" s="2" t="n">
         <v>45961</v>
       </c>
       <c r="J94" t="inlineStr">
@@ -5465,7 +5465,7 @@
       <c r="H95" t="n">
         <v>210651</v>
       </c>
-      <c r="I95" s="3" t="n">
+      <c r="I95" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="J95" t="inlineStr">
@@ -5518,7 +5518,7 @@
       <c r="H96" t="n">
         <v>550463</v>
       </c>
-      <c r="I96" s="3" t="n">
+      <c r="I96" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="J96" t="inlineStr">
@@ -5571,7 +5571,7 @@
       <c r="H97" t="n">
         <v>694992</v>
       </c>
-      <c r="I97" s="3" t="n">
+      <c r="I97" s="2" t="n">
         <v>45967</v>
       </c>
       <c r="J97" t="inlineStr">
@@ -5624,7 +5624,7 @@
       <c r="H98" t="n">
         <v>464046</v>
       </c>
-      <c r="I98" s="3" t="n">
+      <c r="I98" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="J98" t="inlineStr">
@@ -5677,7 +5677,7 @@
       <c r="H99" t="n">
         <v>356833</v>
       </c>
-      <c r="I99" s="3" t="n">
+      <c r="I99" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J99" t="inlineStr">
@@ -5730,7 +5730,7 @@
       <c r="H100" t="n">
         <v>297418</v>
       </c>
-      <c r="I100" s="3" t="n">
+      <c r="I100" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J100" t="inlineStr">
@@ -5783,7 +5783,7 @@
       <c r="H101" t="n">
         <v>323805</v>
       </c>
-      <c r="I101" s="3" t="n">
+      <c r="I101" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J101" t="inlineStr">
@@ -5836,7 +5836,7 @@
       <c r="H102" t="n">
         <v>285461</v>
       </c>
-      <c r="I102" s="3" t="n">
+      <c r="I102" s="2" t="n">
         <v>45974</v>
       </c>
       <c r="J102" t="inlineStr">
@@ -5889,7 +5889,7 @@
       <c r="H103" t="n">
         <v>284652</v>
       </c>
-      <c r="I103" s="3" t="n">
+      <c r="I103" s="2" t="n">
         <v>45975</v>
       </c>
       <c r="J103" t="inlineStr">
@@ -5942,7 +5942,7 @@
       <c r="H104" t="n">
         <v>217320</v>
       </c>
-      <c r="I104" s="3" t="n">
+      <c r="I104" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="J104" t="inlineStr">
@@ -5995,7 +5995,7 @@
       <c r="H105" t="n">
         <v>538402</v>
       </c>
-      <c r="I105" s="3" t="n">
+      <c r="I105" s="2" t="n">
         <v>45979</v>
       </c>
       <c r="J105" t="inlineStr">
@@ -6048,7 +6048,7 @@
       <c r="H106" t="n">
         <v>410751</v>
       </c>
-      <c r="I106" s="3" t="n">
+      <c r="I106" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J106" t="inlineStr">
@@ -6101,7 +6101,7 @@
       <c r="H107" t="n">
         <v>493567</v>
       </c>
-      <c r="I107" s="3" t="n">
+      <c r="I107" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J107" t="inlineStr">
@@ -6154,7 +6154,7 @@
       <c r="H108" t="n">
         <v>361847</v>
       </c>
-      <c r="I108" s="3" t="n">
+      <c r="I108" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J108" t="inlineStr">
@@ -6207,7 +6207,7 @@
       <c r="H109" t="n">
         <v>14973881</v>
       </c>
-      <c r="I109" s="3" t="n">
+      <c r="I109" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J109" t="inlineStr">
@@ -6260,7 +6260,7 @@
       <c r="H110" t="n">
         <v>2451563</v>
       </c>
-      <c r="I110" s="3" t="n">
+      <c r="I110" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J110" t="inlineStr">
@@ -6313,7 +6313,7 @@
       <c r="H111" t="n">
         <v>931731</v>
       </c>
-      <c r="I111" s="3" t="n">
+      <c r="I111" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J111" t="inlineStr">
@@ -6366,7 +6366,7 @@
       <c r="H112" t="n">
         <v>723139</v>
       </c>
-      <c r="I112" s="3" t="n">
+      <c r="I112" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="J112" t="inlineStr">
@@ -6419,7 +6419,7 @@
       <c r="H113" t="n">
         <v>960399</v>
       </c>
-      <c r="I113" s="3" t="n">
+      <c r="I113" s="2" t="n">
         <v>45989</v>
       </c>
       <c r="J113" t="inlineStr">
@@ -6472,7 +6472,7 @@
       <c r="H114" t="n">
         <v>257093</v>
       </c>
-      <c r="I114" s="3" t="n">
+      <c r="I114" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J114" t="inlineStr">
@@ -6525,7 +6525,7 @@
       <c r="H115" t="n">
         <v>443194</v>
       </c>
-      <c r="I115" s="3" t="n">
+      <c r="I115" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J115" t="inlineStr">
@@ -6578,7 +6578,7 @@
       <c r="H116" t="n">
         <v>273278</v>
       </c>
-      <c r="I116" s="3" t="n">
+      <c r="I116" s="2" t="n">
         <v>45994</v>
       </c>
       <c r="J116" t="inlineStr">
@@ -6631,7 +6631,7 @@
       <c r="H117" t="n">
         <v>304724</v>
       </c>
-      <c r="I117" s="3" t="n">
+      <c r="I117" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J117" t="inlineStr">
@@ -6684,7 +6684,7 @@
       <c r="H118" t="n">
         <v>370490</v>
       </c>
-      <c r="I118" s="3" t="n">
+      <c r="I118" s="2" t="n">
         <v>45996</v>
       </c>
       <c r="J118" t="inlineStr">
@@ -6737,7 +6737,7 @@
       <c r="H119" t="n">
         <v>518435</v>
       </c>
-      <c r="I119" s="3" t="n">
+      <c r="I119" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="J119" t="inlineStr">
@@ -6790,7 +6790,7 @@
       <c r="H120" t="n">
         <v>563141</v>
       </c>
-      <c r="I120" s="3" t="n">
+      <c r="I120" s="2" t="n">
         <v>46000</v>
       </c>
       <c r="J120" t="inlineStr">
@@ -6843,7 +6843,7 @@
       <c r="H121" t="n">
         <v>409185</v>
       </c>
-      <c r="I121" s="3" t="n">
+      <c r="I121" s="2" t="n">
         <v>46001</v>
       </c>
       <c r="J121" t="inlineStr">
@@ -6896,7 +6896,7 @@
       <c r="H122" t="n">
         <v>648274</v>
       </c>
-      <c r="I122" s="3" t="n">
+      <c r="I122" s="2" t="n">
         <v>46002</v>
       </c>
       <c r="J122" t="inlineStr">
@@ -6949,7 +6949,7 @@
       <c r="H123" t="n">
         <v>379259</v>
       </c>
-      <c r="I123" s="3" t="n">
+      <c r="I123" s="2" t="n">
         <v>46003</v>
       </c>
       <c r="J123" t="inlineStr">
@@ -7002,7 +7002,7 @@
       <c r="H124" t="n">
         <v>454265</v>
       </c>
-      <c r="I124" s="3" t="n">
+      <c r="I124" s="2" t="n">
         <v>46006</v>
       </c>
       <c r="J124" t="inlineStr">
@@ -7055,7 +7055,7 @@
       <c r="H125" t="n">
         <v>610598</v>
       </c>
-      <c r="I125" s="3" t="n">
+      <c r="I125" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="J125" t="inlineStr">
@@ -7108,7 +7108,7 @@
       <c r="H126" t="n">
         <v>356254</v>
       </c>
-      <c r="I126" s="3" t="n">
+      <c r="I126" s="2" t="n">
         <v>46008</v>
       </c>
       <c r="J126" t="inlineStr">
@@ -7161,7 +7161,7 @@
       <c r="H127" t="n">
         <v>767875</v>
       </c>
-      <c r="I127" s="3" t="n">
+      <c r="I127" s="2" t="n">
         <v>46009</v>
       </c>
       <c r="J127" t="inlineStr">
@@ -7214,7 +7214,7 @@
       <c r="H128" t="n">
         <v>4394177</v>
       </c>
-      <c r="I128" s="3" t="n">
+      <c r="I128" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J128" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="H129" t="n">
         <v>4666947</v>
       </c>
-      <c r="I129" s="3" t="n">
+      <c r="I129" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J129" t="inlineStr">
@@ -7320,7 +7320,7 @@
       <c r="H130" t="n">
         <v>1731142</v>
       </c>
-      <c r="I130" s="3" t="n">
+      <c r="I130" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J130" t="inlineStr">
@@ -7373,7 +7373,7 @@
       <c r="H131" t="n">
         <v>570684</v>
       </c>
-      <c r="I131" s="3" t="n">
+      <c r="I131" s="2" t="n">
         <v>46015</v>
       </c>
       <c r="J131" t="inlineStr">
@@ -7426,7 +7426,7 @@
       <c r="H132" t="n">
         <v>486215</v>
       </c>
-      <c r="I132" s="3" t="n">
+      <c r="I132" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="J132" t="inlineStr">
@@ -7479,7 +7479,7 @@
       <c r="H133" t="n">
         <v>389311</v>
       </c>
-      <c r="I133" s="3" t="n">
+      <c r="I133" s="2" t="n">
         <v>46020</v>
       </c>
       <c r="J133" t="inlineStr">
@@ -7532,7 +7532,7 @@
       <c r="H134" t="n">
         <v>299445</v>
       </c>
-      <c r="I134" s="3" t="n">
+      <c r="I134" s="2" t="n">
         <v>46021</v>
       </c>
       <c r="J134" t="inlineStr">
@@ -7585,7 +7585,7 @@
       <c r="H135" t="n">
         <v>215402</v>
       </c>
-      <c r="I135" s="3" t="n">
+      <c r="I135" s="2" t="n">
         <v>46022</v>
       </c>
       <c r="J135" t="inlineStr">
@@ -7638,7 +7638,7 @@
       <c r="H136" t="n">
         <v>202613</v>
       </c>
-      <c r="I136" s="3" t="n">
+      <c r="I136" s="2" t="n">
         <v>46023</v>
       </c>
       <c r="J136" t="inlineStr">
@@ -7691,7 +7691,7 @@
       <c r="H137" t="n">
         <v>180447</v>
       </c>
-      <c r="I137" s="3" t="n">
+      <c r="I137" s="2" t="n">
         <v>46024</v>
       </c>
       <c r="J137" t="inlineStr">
@@ -7744,7 +7744,7 @@
       <c r="H138" t="n">
         <v>382913</v>
       </c>
-      <c r="I138" s="3" t="n">
+      <c r="I138" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="J138" t="inlineStr">
@@ -7797,7 +7797,7 @@
       <c r="H139" t="n">
         <v>423153</v>
       </c>
-      <c r="I139" s="3" t="n">
+      <c r="I139" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="J139" t="inlineStr">
@@ -7850,7 +7850,7 @@
       <c r="H140" t="n">
         <v>162008</v>
       </c>
-      <c r="I140" s="3" t="n">
+      <c r="I140" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="J140" t="inlineStr">
@@ -7903,7 +7903,7 @@
       <c r="H141" t="n">
         <v>419379</v>
       </c>
-      <c r="I141" s="3" t="n">
+      <c r="I141" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J141" t="inlineStr">
@@ -7956,7 +7956,7 @@
       <c r="H142" t="n">
         <v>860481</v>
       </c>
-      <c r="I142" s="3" t="n">
+      <c r="I142" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J142" t="inlineStr">
@@ -8009,7 +8009,7 @@
       <c r="H143" t="n">
         <v>857502</v>
       </c>
-      <c r="I143" s="3" t="n">
+      <c r="I143" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J143" t="inlineStr">
@@ -8062,7 +8062,7 @@
       <c r="H144" t="n">
         <v>425788</v>
       </c>
-      <c r="I144" s="3" t="n">
+      <c r="I144" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="J144" t="inlineStr">
@@ -8115,7 +8115,7 @@
       <c r="H145" t="n">
         <v>728823</v>
       </c>
-      <c r="I145" s="3" t="n">
+      <c r="I145" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="J145" t="inlineStr">
@@ -8168,7 +8168,7 @@
       <c r="H146" t="n">
         <v>519764</v>
       </c>
-      <c r="I146" s="3" t="n">
+      <c r="I146" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="J146" t="inlineStr">
@@ -8221,7 +8221,7 @@
       <c r="H147" t="n">
         <v>347310</v>
       </c>
-      <c r="I147" s="3" t="n">
+      <c r="I147" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="J147" t="inlineStr">
@@ -8274,7 +8274,7 @@
       <c r="H148" t="n">
         <v>422605</v>
       </c>
-      <c r="I148" s="3" t="n">
+      <c r="I148" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="J148" t="inlineStr">
@@ -8327,7 +8327,7 @@
       <c r="H149" t="n">
         <v>474063</v>
       </c>
-      <c r="I149" s="3" t="n">
+      <c r="I149" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="J149" t="inlineStr">
@@ -8380,7 +8380,7 @@
       <c r="H150" t="n">
         <v>705343</v>
       </c>
-      <c r="I150" s="3" t="n">
+      <c r="I150" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="J150" t="inlineStr">
@@ -8433,7 +8433,7 @@
       <c r="H151" t="n">
         <v>771431</v>
       </c>
-      <c r="I151" s="3" t="n">
+      <c r="I151" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="J151" t="inlineStr">
@@ -8452,6 +8452,218 @@
         </is>
       </c>
       <c r="M151" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>2201</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2121.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2130</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>421850</v>
+      </c>
+      <c r="I152" s="3" t="n">
+        <v>46049</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>INE1NPP01017</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Siemens Energy India Ltd</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2356.9</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>2367</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2201</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2205</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1000470</v>
+      </c>
+      <c r="I153" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>INE1NPP01017</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Siemens Energy India Ltd</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2481.5</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2360.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2360.1</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1012083</v>
+      </c>
+      <c r="I154" s="3" t="n">
+        <v>46051</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>INE1NPP01017</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Siemens Energy India Ltd</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2487.2</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2519.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2430</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2490.3</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>507181</v>
+      </c>
+      <c r="I155" s="3" t="n">
+        <v>46052</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>INE1NPP01017</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Siemens Energy India Ltd</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>SIEENE</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>BREEZE</t>
         </is>
